--- a/src/test/resources/com/sirion/xls/Contract Template Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Contract Template Suite.xlsx
@@ -1,21 +1,167 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1065" windowWidth="14805" windowHeight="7050" tabRatio="888"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
+    <sheet name="ContractTemplateCreation" sheetId="14" r:id="rId2"/>
+    <sheet name="ContractTemplateWorkflow" sheetId="15" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="40">
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>ContractTemplateCreation</t>
+  </si>
+  <si>
+    <t>APAC</t>
+  </si>
+  <si>
+    <t>Afghanistan;
+Akrotiri;
+Albania;
+Algeria;
+American Samoa;
+Andorra;
+Angola;
+Anguilla;
+Antarctica;
+Antigua and Barbuda;
+Argentina;
+Armenia;
+Aruba;
+Ashmore and Cartier Islands;
+Australia;
+Austria;
+Azerbaijan</t>
+  </si>
+  <si>
+    <t>templateName</t>
+  </si>
+  <si>
+    <t>templateTransactionType</t>
+  </si>
+  <si>
+    <t>templateSuppliers</t>
+  </si>
+  <si>
+    <t>templateCategory</t>
+  </si>
+  <si>
+    <t>templateContractingEntity</t>
+  </si>
+  <si>
+    <t>templateTermType</t>
+  </si>
+  <si>
+    <t>templateUploadTemplate</t>
+  </si>
+  <si>
+    <t>templateFunctions</t>
+  </si>
+  <si>
+    <t>templateServices</t>
+  </si>
+  <si>
+    <t>templateRegions</t>
+  </si>
+  <si>
+    <t>templateCountries</t>
+  </si>
+  <si>
+    <t>templateIndustryTypes</t>
+  </si>
+  <si>
+    <t>templateAgreementTypes</t>
+  </si>
+  <si>
+    <t>templateContractServices</t>
+  </si>
+  <si>
+    <t>templateTCVMin</t>
+  </si>
+  <si>
+    <t>templateTCVMax</t>
+  </si>
+  <si>
+    <t>templateRiskTypes</t>
+  </si>
+  <si>
+    <t>ABC News</t>
+  </si>
+  <si>
+    <t>Master Service Agreement</t>
+  </si>
+  <si>
+    <t>Auto Renewal</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Steady State Support</t>
+  </si>
+  <si>
+    <t>ContractTemplateWorkflow</t>
+  </si>
+  <si>
+    <t>Master Service Agreement - ABC News</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>IT;
+Human Resources</t>
+  </si>
+  <si>
+    <t>Applications Development &amp; Maintenance;
+End-User Computing</t>
+  </si>
+  <si>
+    <t>Legal Risk</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +169,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -40,18 +215,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +368,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +576,343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" bestFit="true" customWidth="true" style="3" width="26.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="10.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="7.58203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="5.85546875" collapsed="true"/>
+    <col min="6" max="16384" style="3" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="35.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="24.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="17.7109375" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" style="8" width="24.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="8" width="18.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="8" width="24.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="8" width="19.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="8" width="20.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="8" width="16.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="8" width="20.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="8" width="22.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="8" width="24.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="8" width="24.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="8" width="16.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="8" width="16.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="8" width="18.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="8" width="10.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="8" width="7.58203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="8" width="5.85546875" collapsed="true"/>
+    <col min="21" max="16384" style="8" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="6">
+        <v>1234567</v>
+      </c>
+      <c r="P3" s="6">
+        <v>12345678</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="35.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="10.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="7.58203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="5.85546875" collapsed="true"/>
+    <col min="5" max="16384" style="8" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/com/sirion/xls/Contract Template Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Contract Template Suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/com/sirion/xls/Contract Template Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Contract Template Suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>
@@ -147,10 +147,10 @@
     <t>Legal Risk</t>
   </si>
   <si>
+    <t>HSBC</t>
+  </si>
+  <si>
     <t>SKIP</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
   <si>
     <t>PASS</t>
@@ -791,7 +791,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T2" s="7"/>
     </row>
@@ -803,7 +803,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
@@ -895,7 +895,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="7"/>
     </row>
